--- a/data files/Purchase Order/MEDISAFE.xlsx
+++ b/data files/Purchase Order/MEDISAFE.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179616AB-8BB8-43F6-9513-155E7BEB70D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2616" yWindow="2340" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="117">
   <si>
     <t>To,</t>
   </si>
@@ -248,9 +249,6 @@
     <t>Large</t>
   </si>
   <si>
-    <t>(Plastic Box Packing)</t>
-  </si>
-  <si>
     <t>MSI-1249(Blue)</t>
   </si>
   <si>
@@ -363,12 +361,18 @@
   </si>
   <si>
     <t>I-Mask (igel) 45no.</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>*(Plastic Box Packing)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,8 +580,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -619,7 +623,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -633,14 +637,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -678,7 +685,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -750,7 +757,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -923,24 +930,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:XFD84"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="44.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="20"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="44.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="20"/>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -951,17 +958,17 @@
       <c r="F1" s="1"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -972,7 +979,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -983,7 +990,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -992,7 +999,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -1003,7 +1010,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>68</v>
       </c>
@@ -1014,7 +1021,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1023,7 +1030,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>11</v>
       </c>
@@ -1039,10 +1046,12 @@
       <c r="E9" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -1051,7 +1060,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21"/>
       <c r="B11" s="21" t="s">
         <v>9</v>
@@ -1060,21 +1069,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="22">
         <v>10</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" s="17"/>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
       <c r="B12" s="24" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -1083,7 +1092,7 @@
       <c r="G12" s="17"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="21" t="s">
         <v>9</v>
@@ -1092,18 +1101,18 @@
         <v>10</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
       <c r="B14" s="24" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -1111,7 +1120,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
       <c r="B15" s="21" t="s">
         <v>9</v>
@@ -1120,20 +1129,20 @@
         <v>15</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="22">
         <v>3</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" s="17"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="21"/>
       <c r="B16" s="24" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -1141,7 +1150,7 @@
       <c r="F16" s="21"/>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="21" t="s">
         <v>9</v>
@@ -1150,18 +1159,18 @@
         <v>16</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="21"/>
       <c r="B18" s="24" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -1169,7 +1178,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="24"/>
       <c r="C19" s="21"/>
@@ -1178,10 +1187,10 @@
       <c r="F19" s="21"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="21"/>
       <c r="B20" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>17</v>
@@ -1191,14 +1200,14 @@
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
       <c r="B21" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>18</v>
@@ -1208,14 +1217,14 @@
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21" s="17"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
       <c r="B22" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="27">
         <v>1</v>
@@ -1225,14 +1234,14 @@
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
       <c r="B23" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="27">
         <v>2</v>
@@ -1244,14 +1253,14 @@
         <v>4</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="27">
         <v>3</v>
@@ -1261,14 +1270,14 @@
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="27">
         <v>4</v>
@@ -1280,14 +1289,14 @@
         <v>4</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="21"/>
       <c r="B26" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="27">
         <v>5</v>
@@ -1297,11 +1306,11 @@
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -1310,7 +1319,7 @@
       <c r="F27" s="21"/>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="21"/>
       <c r="B28" s="27" t="s">
         <v>26</v>
@@ -1323,11 +1332,11 @@
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
       <c r="B29" s="27" t="s">
         <v>26</v>
@@ -1340,11 +1349,11 @@
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29" s="17"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="29"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -1353,7 +1362,7 @@
       <c r="F30" s="21"/>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
       <c r="B31" s="27" t="s">
         <v>30</v>
@@ -1366,11 +1375,11 @@
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -1379,7 +1388,7 @@
       <c r="F32" s="21"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="21"/>
       <c r="B33" s="27" t="s">
         <v>32</v>
@@ -1392,11 +1401,11 @@
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G33" s="17"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -1405,7 +1414,7 @@
       <c r="F34" s="21"/>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
       <c r="B35" s="27" t="s">
         <v>34</v>
@@ -1418,11 +1427,11 @@
       </c>
       <c r="E35" s="25"/>
       <c r="F35" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="27" t="s">
         <v>35</v>
@@ -1431,11 +1440,11 @@
       <c r="D36" s="23"/>
       <c r="E36" s="25"/>
       <c r="F36" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -1444,7 +1453,7 @@
       <c r="F37" s="21"/>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="21"/>
       <c r="B38" s="27" t="s">
         <v>36</v>
@@ -1457,11 +1466,11 @@
       </c>
       <c r="E38" s="25"/>
       <c r="F38" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="27" t="s">
         <v>35</v>
@@ -1472,7 +1481,7 @@
       <c r="F39" s="21"/>
       <c r="G39" s="17"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -1481,7 +1490,7 @@
       <c r="F40" s="21"/>
       <c r="G40" s="17"/>
     </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
       <c r="B41" s="27" t="s">
         <v>48</v>
@@ -1494,11 +1503,11 @@
         <v>20</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G41" s="17"/>
     </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -1507,7 +1516,7 @@
       <c r="F42" s="21"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="27" t="s">
         <v>39</v>
@@ -1520,11 +1529,11 @@
       </c>
       <c r="E43" s="22"/>
       <c r="F43" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G43" s="17"/>
     </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="27" t="s">
         <v>39</v>
@@ -1537,11 +1546,11 @@
       </c>
       <c r="E44" s="22"/>
       <c r="F44" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G44" s="17"/>
     </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
       <c r="B45" s="27" t="s">
         <v>39</v>
@@ -1554,11 +1563,11 @@
       </c>
       <c r="E45" s="22"/>
       <c r="F45" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G45" s="17"/>
     </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -1567,7 +1576,7 @@
       <c r="F46" s="21"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
       <c r="B47" s="27" t="s">
         <v>43</v>
@@ -1580,11 +1589,11 @@
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G47" s="17"/>
     </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
       <c r="B48" s="27" t="s">
         <v>45</v>
@@ -1597,11 +1606,11 @@
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G48" s="17"/>
     </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -1610,10 +1619,10 @@
       <c r="F49" s="21"/>
       <c r="G49" s="17"/>
     </row>
-    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="23"/>
       <c r="B50" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C50" s="23"/>
       <c r="D50" s="27" t="s">
@@ -1621,14 +1630,14 @@
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C51" s="23"/>
       <c r="D51" s="27" t="s">
@@ -1636,11 +1645,11 @@
       </c>
       <c r="E51" s="22"/>
       <c r="F51" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G51" s="17"/>
     </row>
-    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
       <c r="B52" s="27" t="s">
         <v>53</v>
@@ -1651,11 +1660,11 @@
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G52" s="17"/>
     </row>
-    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="B53" s="27"/>
       <c r="C53" s="23"/>
@@ -1664,7 +1673,7 @@
       <c r="F53" s="21"/>
       <c r="G53" s="17"/>
     </row>
-    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="23"/>
       <c r="B54" s="27" t="s">
         <v>55</v>
@@ -1679,11 +1688,11 @@
         <v>20</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G54" s="17"/>
     </row>
-    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="B55" s="27"/>
       <c r="C55" s="23"/>
@@ -1692,7 +1701,7 @@
       <c r="F55" s="21"/>
       <c r="G55" s="17"/>
     </row>
-    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="23"/>
       <c r="B56" s="27" t="s">
         <v>57</v>
@@ -1703,11 +1712,11 @@
       </c>
       <c r="E56" s="22"/>
       <c r="F56" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G56" s="17"/>
     </row>
-    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="23"/>
       <c r="B57" s="27"/>
       <c r="C57" s="23"/>
@@ -1716,7 +1725,7 @@
       <c r="F57" s="21"/>
       <c r="G57" s="17"/>
     </row>
-    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="23"/>
       <c r="B58" s="27" t="s">
         <v>59</v>
@@ -1727,11 +1736,11 @@
       </c>
       <c r="E58" s="22"/>
       <c r="F58" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G58" s="17"/>
     </row>
-    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="23"/>
       <c r="B59" s="27" t="s">
         <v>61</v>
@@ -1744,11 +1753,11 @@
       </c>
       <c r="E59" s="22"/>
       <c r="F59" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G59" s="17"/>
     </row>
-    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="23"/>
       <c r="B60" s="27" t="s">
         <v>63</v>
@@ -1761,11 +1770,11 @@
       </c>
       <c r="E60" s="22"/>
       <c r="F60" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G60" s="17"/>
     </row>
-    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="23"/>
       <c r="B61" s="27" t="s">
         <v>66</v>
@@ -1776,11 +1785,11 @@
       </c>
       <c r="E61" s="22"/>
       <c r="F61" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G61" s="17"/>
     </row>
-    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="23"/>
       <c r="B62" s="27"/>
       <c r="C62" s="23"/>
@@ -1789,7 +1798,7 @@
       <c r="F62" s="21"/>
       <c r="G62" s="17"/>
     </row>
-    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="B63" s="27" t="s">
         <v>70</v>
@@ -1804,11 +1813,11 @@
         <v>4</v>
       </c>
       <c r="F63" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G63" s="17"/>
     </row>
-    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="23"/>
       <c r="B64" s="27" t="s">
         <v>70</v>
@@ -1817,66 +1826,66 @@
         <v>76</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E64" s="22"/>
       <c r="F64" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G64" s="17"/>
     </row>
-    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="23"/>
       <c r="B65" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C65" s="33" t="s">
         <v>73</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E65" s="22"/>
       <c r="F65" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G65" s="17"/>
     </row>
-    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="23"/>
       <c r="B66" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>74</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E66" s="22"/>
       <c r="F66" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G66" s="17"/>
     </row>
-    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="23"/>
       <c r="B67" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C67" s="33" t="s">
         <v>75</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E67" s="22"/>
       <c r="F67" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G67" s="17"/>
     </row>
-    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="23"/>
       <c r="B68" s="27"/>
       <c r="C68" s="23"/>
@@ -1885,42 +1894,42 @@
       <c r="F68" s="21"/>
       <c r="G68" s="17"/>
     </row>
-    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="23"/>
       <c r="B69" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C69" s="33"/>
       <c r="D69" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E69" s="22"/>
       <c r="F69" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G69" s="17"/>
     </row>
-    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="23"/>
       <c r="B70" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C70" s="33"/>
       <c r="D70" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E70" s="22">
         <v>25</v>
       </c>
       <c r="F70" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G70" s="17"/>
     </row>
-    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="23"/>
       <c r="B71" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="33"/>
       <c r="D71" s="27"/>
@@ -1928,14 +1937,14 @@
         <v>1</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G71" s="17"/>
     </row>
-    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="23"/>
       <c r="B72" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C72" s="33"/>
       <c r="D72" s="27"/>
@@ -1943,14 +1952,14 @@
         <v>1</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G72" s="17"/>
     </row>
-    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="23"/>
       <c r="B73" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C73" s="33"/>
       <c r="D73" s="27"/>
@@ -1958,11 +1967,11 @@
         <v>1</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G73" s="17"/>
     </row>
-    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="23"/>
       <c r="B74" s="27"/>
       <c r="C74" s="33"/>
@@ -1971,63 +1980,63 @@
       <c r="F74" s="21"/>
       <c r="G74" s="17"/>
     </row>
-    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="23"/>
       <c r="B75" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C75" s="33"/>
       <c r="D75" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E75" s="22"/>
       <c r="F75" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G75" s="17"/>
     </row>
-    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="23"/>
       <c r="B76" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="33"/>
       <c r="D76" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G76" s="17"/>
     </row>
-    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="23"/>
       <c r="B77" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C77" s="33"/>
       <c r="D77" s="27"/>
       <c r="E77" s="22"/>
       <c r="F77" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G77" s="17"/>
     </row>
-    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="23"/>
       <c r="B78" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C78" s="33"/>
       <c r="D78" s="27"/>
       <c r="E78" s="22"/>
       <c r="F78" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G78" s="17"/>
     </row>
-    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="23"/>
       <c r="B79" s="27"/>
       <c r="C79" s="33"/>
@@ -2036,39 +2045,39 @@
       <c r="F79" s="21"/>
       <c r="G79" s="17"/>
     </row>
-    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="23"/>
       <c r="B80" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C80" s="33"/>
       <c r="D80" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G80" s="17"/>
     </row>
-    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="23"/>
       <c r="B81" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C81" s="33"/>
       <c r="D81" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E81" s="22">
         <v>10</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G81" s="17"/>
     </row>
-    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="23"/>
       <c r="B82" s="27"/>
       <c r="C82" s="33"/>
@@ -2077,56 +2086,56 @@
       <c r="F82" s="21"/>
       <c r="G82" s="17"/>
     </row>
-    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="23"/>
       <c r="B83" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C83" s="33"/>
       <c r="D83" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E83" s="22">
         <v>5</v>
       </c>
       <c r="F83" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G83" s="17"/>
     </row>
-    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="23"/>
       <c r="B84" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C84" s="33"/>
       <c r="D84" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E84" s="22"/>
       <c r="F84" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G84" s="17"/>
     </row>
-    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="23"/>
       <c r="B85" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C85" s="33"/>
       <c r="D85" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E85" s="22">
         <v>5</v>
       </c>
       <c r="F85" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G85" s="17"/>
     </row>
-    <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="23"/>
       <c r="B86" s="23"/>
       <c r="C86" s="23"/>
@@ -2135,31 +2144,31 @@
       <c r="F86" s="21"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B87" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F87" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B88" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F88" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B89" s="34" t="s">
-        <v>110</v>
-      </c>
       <c r="F89" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>2</v>
       </c>
@@ -2170,7 +2179,7 @@
       <c r="F91" s="9"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>3</v>
       </c>
@@ -2180,7 +2189,7 @@
       <c r="F92" s="9"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
         <v>4</v>
       </c>
@@ -2190,7 +2199,7 @@
       <c r="F93" s="9"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>5</v>
       </c>
@@ -2200,14 +2209,14 @@
       <c r="F94" s="9"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E95" s="2"/>
       <c r="F95" s="1"/>
       <c r="G95" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.12" right="0.11" top="0.27" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -2215,12 +2224,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
